--- a/6 семестр/фатахова/Книга1.xlsx
+++ b/6 семестр/фатахова/Книга1.xlsx
@@ -8,14 +8,51 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirill/Desktop/Study/6 семестр/фатахова/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F847615E-B3E6-634A-B399-B36C0C7851F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD19D4F2-43A3-4C4C-A613-D12DCC46D524}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B02A0057-0E8F-664E-9AAA-057A9DD12574}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{B02A0057-0E8F-664E-9AAA-057A9DD12574}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчет о результатах 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Отчет об устойчивости 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Отчет о пределах 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Лист1!$D$17:$F$17</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Лист1!$D$17:$F$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Лист1!$G$7:$G$9</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Лист1!$G$11</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Лист1!$I$7:$I$9</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>Оптимальное решение</t>
   </si>
@@ -73,16 +110,234 @@
   </si>
   <si>
     <t>объем производства</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.46 Отчет о результатах</t>
+  </si>
+  <si>
+    <t>Лист: [Книга1.xlsx]Лист1</t>
+  </si>
+  <si>
+    <t>Отчет создан: 26.02.2021 14:20:44</t>
+  </si>
+  <si>
+    <t>Результат: Решение найдено. Все ограничения и условия оптимальности выполнены.</t>
+  </si>
+  <si>
+    <t>Модуль поиска решения</t>
+  </si>
+  <si>
+    <t>Модуль: Поиск решения линейных задач симплекс-методом</t>
+  </si>
+  <si>
+    <t>Время решения: 3317,054 секунд.</t>
+  </si>
+  <si>
+    <t>Число итераций: 3 Число подзадач: 0</t>
+  </si>
+  <si>
+    <t>Параметры поиска решения</t>
+  </si>
+  <si>
+    <t>Максимальное время Без пределов,  Число итераций Без пределов, Precision 1E-06, Использовать автоматическое масштабирование</t>
+  </si>
+  <si>
+    <t>Максимальное число подзадач Без пределов, Максимальное число целочисленных решений Без пределов, Целочисленное отклонение 1%</t>
+  </si>
+  <si>
+    <t>Ячейка целевой функции (Максимум)</t>
+  </si>
+  <si>
+    <t>Ячейка</t>
+  </si>
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Исходное значение</t>
+  </si>
+  <si>
+    <t>Окончательное значение</t>
+  </si>
+  <si>
+    <t>Ячейки переменных</t>
+  </si>
+  <si>
+    <t>Целочисленное</t>
+  </si>
+  <si>
+    <t>Ограничения</t>
+  </si>
+  <si>
+    <t>Значение ячейки</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>Допуск</t>
+  </si>
+  <si>
+    <t>$G$11</t>
+  </si>
+  <si>
+    <t>Прибль от реализации Суммарная прибыль</t>
+  </si>
+  <si>
+    <t>$D$17</t>
+  </si>
+  <si>
+    <t>объем производства А</t>
+  </si>
+  <si>
+    <t>Продолжить</t>
+  </si>
+  <si>
+    <t>$E$17</t>
+  </si>
+  <si>
+    <t>объем производства B</t>
+  </si>
+  <si>
+    <t>$F$17</t>
+  </si>
+  <si>
+    <t>объем производства C</t>
+  </si>
+  <si>
+    <t>$G$7</t>
+  </si>
+  <si>
+    <t>запас мощности станка 1 Всего затрачено</t>
+  </si>
+  <si>
+    <t>$G$7&lt;=$I$7</t>
+  </si>
+  <si>
+    <t>Привязка</t>
+  </si>
+  <si>
+    <t>$G$8</t>
+  </si>
+  <si>
+    <t>запас мощности станка 2 Всего затрачено</t>
+  </si>
+  <si>
+    <t>$G$8&lt;=$I$8</t>
+  </si>
+  <si>
+    <t>$G$9</t>
+  </si>
+  <si>
+    <t>запас мощности станка 3 Всего затрачено</t>
+  </si>
+  <si>
+    <t>$G$9&lt;=$I$9</t>
+  </si>
+  <si>
+    <t>$D$17&gt;=0</t>
+  </si>
+  <si>
+    <t>Без привязки</t>
+  </si>
+  <si>
+    <t>$E$17&gt;=0</t>
+  </si>
+  <si>
+    <t>$F$17&gt;=0</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.46 Отчет об устойчивости</t>
+  </si>
+  <si>
+    <t>Отчет создан: 26.02.2021 14:20:45</t>
+  </si>
+  <si>
+    <t>Окончательное</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Приведенн.</t>
+  </si>
+  <si>
+    <t>Стоимость</t>
+  </si>
+  <si>
+    <t>Целевая функция</t>
+  </si>
+  <si>
+    <t>Коэффициент</t>
+  </si>
+  <si>
+    <t>Допустимое</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Уменьшение</t>
+  </si>
+  <si>
+    <t>Тень</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Ограничение</t>
+  </si>
+  <si>
+    <t>Правая сторона</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.46 Отчет о пределах</t>
+  </si>
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Нижний</t>
+  </si>
+  <si>
+    <t>Предел</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
+  <si>
+    <t>Верхний</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -97,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -105,13 +360,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -425,18 +744,808 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B84576-43FC-774C-A033-E96EA3227C0B}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="6">
+        <v>45000</v>
+      </c>
+      <c r="E16" s="6">
+        <v>4725500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>94.5</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>173.5</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>38</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="7">
+        <v>110</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="8">
+        <v>200</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8">
+        <v>50</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="7">
+        <v>94.5</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="7">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="7">
+        <v>173.5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="7">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="6">
+        <v>38</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="6">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEA1CE1-384A-944F-9FEB-FC5BCDC2A597}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>15000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="5">
+        <v>173.5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>16000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="5">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5">
+        <v>110</v>
+      </c>
+      <c r="E16" s="5">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="5">
+        <v>110</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H16" s="5">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="5">
+        <v>200</v>
+      </c>
+      <c r="E17" s="5">
+        <v>16000</v>
+      </c>
+      <c r="F17" s="5">
+        <v>200</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1E+30</v>
+      </c>
+      <c r="H17" s="5">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>50</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="3">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5614CB95-8ED0-184B-BB58-2BB36280106B}">
+  <dimension ref="A1:J15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4725500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7">
+        <v>94.5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>85</v>
+      </c>
+      <c r="I13" s="7">
+        <v>250</v>
+      </c>
+      <c r="J13" s="7">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7">
+        <v>173.5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>110</v>
+      </c>
+      <c r="I14" s="7">
+        <v>398.5</v>
+      </c>
+      <c r="J14" s="7">
+        <v>20035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6">
+        <v>38</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>125</v>
+      </c>
+      <c r="I15" s="6">
+        <v>597</v>
+      </c>
+      <c r="J15" s="6">
+        <v>21020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB8B34B-E990-D84C-9078-3F406A397FE7}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -484,6 +1593,10 @@
       <c r="F7">
         <v>8</v>
       </c>
+      <c r="G7">
+        <f>SUM(D7:D9,D17)</f>
+        <v>110</v>
+      </c>
       <c r="H7" t="s">
         <v>10</v>
       </c>
@@ -504,6 +1617,10 @@
       <c r="F8">
         <v>2</v>
       </c>
+      <c r="G8" s="1">
+        <f>SUM(E7:E9,E17)</f>
+        <v>200</v>
+      </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
@@ -524,6 +1641,10 @@
       <c r="F9">
         <v>2</v>
       </c>
+      <c r="G9" s="1">
+        <f>SUM(F7:F9,F17)</f>
+        <v>50</v>
+      </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
@@ -549,6 +1670,10 @@
       <c r="F11">
         <v>14000</v>
       </c>
+      <c r="G11">
+        <f>SUMPRODUCT(D11:F11,D17:F17)</f>
+        <v>4725500</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
@@ -571,9 +1696,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>15</v>
+      </c>
+      <c r="D17">
+        <v>94.5</v>
+      </c>
+      <c r="E17">
+        <v>173.5</v>
+      </c>
+      <c r="F17">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
